--- a/Documentation/Function Points.xlsx
+++ b/Documentation/Function Points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico1\Desktop\Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669AF45-BC57-49F7-827A-B679F01C4057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5AB6B-8A7F-4042-AD0D-CB4DE5D364A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0F201D9-8C9D-4DF5-B5CE-303E73A8CF1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>No.</t>
   </si>
@@ -131,36 +131,18 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Edit auction</t>
-  </si>
-  <si>
-    <t>Edit auction details</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>Edit profile informations</t>
-  </si>
-  <si>
     <t>Modify profile details</t>
   </si>
   <si>
     <t>Authentication</t>
   </si>
   <si>
-    <t>Display my profile page</t>
-  </si>
-  <si>
     <t>Display my profile details</t>
   </si>
   <si>
-    <t>Display a general user profile page</t>
-  </si>
-  <si>
-    <t>Display a general user profile details</t>
-  </si>
-  <si>
     <t>Auctions</t>
   </si>
   <si>
@@ -170,9 +152,6 @@
     <t>Search for an auction</t>
   </si>
   <si>
-    <t>5 DET from Auction + 4 DET from Item</t>
-  </si>
-  <si>
     <t>Make an offer</t>
   </si>
   <si>
@@ -185,19 +164,34 @@
     <t>2 DET from Auction + 2 DET from Item</t>
   </si>
   <si>
-    <t>3 DET from User + 2 DET from Auction + 2 DET from Item</t>
-  </si>
-  <si>
     <t>Display the auctions I've created</t>
   </si>
   <si>
-    <t>Display my created auction</t>
-  </si>
-  <si>
     <t>Display my offers</t>
   </si>
   <si>
     <t>3 DET from Auction + 2 DET from Item</t>
+  </si>
+  <si>
+    <t>Display my settings page</t>
+  </si>
+  <si>
+    <t>Display my created auctions</t>
+  </si>
+  <si>
+    <t>7 DET from Auction + 5 DET from Item</t>
+  </si>
+  <si>
+    <t>Display infomation of an Auction</t>
+  </si>
+  <si>
+    <t>Edit profile information</t>
+  </si>
+  <si>
+    <t>Display the Page of an Auction</t>
+  </si>
+  <si>
+    <t>4 DET from Auction + 4 DET from Item</t>
   </si>
 </sst>
 </file>
@@ -227,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -311,46 +305,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -360,11 +319,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,8 +622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD7FD303-5357-4416-93FC-4ED559AC672B}" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J16" xr:uid="{DD7FD303-5357-4416-93FC-4ED559AC672B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD7FD303-5357-4416-93FC-4ED559AC672B}" name="Table1" displayName="Table1" ref="A1:J15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J15" xr:uid="{DD7FD303-5357-4416-93FC-4ED559AC672B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -991,7 +951,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -1132,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -1162,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1192,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>26</v>
@@ -1222,13 +1182,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>20</v>
@@ -1252,251 +1212,222 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>48</v>
+      <c r="J10" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="5">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="I12" s="9">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="9">
         <v>3</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="9">
         <v>3</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="G15" s="9">
         <v>2</v>
       </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="H15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8">
-        <v>3</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
+    <row r="16" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
